--- a/Documentation/User Requirements.xlsx
+++ b/Documentation/User Requirements.xlsx
@@ -40,9 +40,6 @@
     <t>Package information</t>
   </si>
   <si>
-    <t>Item, package &amp; delivery registration</t>
-  </si>
-  <si>
     <t>Acess to delivery information</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Online inventory for a delivery company - Requirements</t>
+  </si>
+  <si>
+    <t>Delivery registration</t>
   </si>
 </sst>
 </file>
@@ -311,6 +311,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,24 +372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,7 +692,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,18 +724,18 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
-        <v>12</v>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -749,17 +749,17 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -773,21 +773,21 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -801,19 +801,19 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -827,21 +827,21 @@
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>8</v>
+      <c r="C6" s="25" t="s">
+        <v>12</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1612,17 +1612,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I4:K5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
